--- a/SY.xlsx
+++ b/SY.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>mercredi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t>SI - TP (KRTX9AA2) (SY)</t>
@@ -29,25 +29,22 @@
     <t>SY</t>
   </si>
   <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TYPE_TP</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
     <t>13:30</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_TP</t>
-  </si>
-  <si>
-    <t>vendredi</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>mardi</t>
   </si>
   <si>
     <t>jeudi</t>
@@ -109,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,7 +122,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45952.0</v>
+        <v>45954.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -157,158 +154,150 @@
       <c r="I3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="1">
-        <v>45954.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>45958.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>44.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="1">
-        <v>45958.0</v>
+      <c r="A7" t="s" s="0">
+        <v>2</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>45967.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="0"/>
-      <c r="G8" t="s" s="0">
+      <c r="D10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H10" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I8" s="0"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="1">
-        <v>45967.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>12</v>
-      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="1">
+        <v>45975.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E11" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="I11" s="0"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="1">
-        <v>45975.0</v>
-      </c>
       <c r="B13" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="I14" s="0"/>
+      <c r="I13" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/SY.xlsx
+++ b/SY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>RM/SY</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -292,10 +295,12 @@
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="0"/>
     </row>

--- a/SY.xlsx
+++ b/SY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>U3-216</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-308</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -53,10 +59,16 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>U3-206</t>
+  </si>
+  <si>
     <t>SI (KRTX9AA2)</t>
   </si>
   <si>
     <t>RM/SY</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -144,12 +156,14 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -166,7 +180,7 @@
         <v>45958.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -180,17 +194,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -210,12 +226,14 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>11</v>
+      </c>
       <c r="G7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -232,7 +250,7 @@
         <v>45967.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -246,17 +264,19 @@
         <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" t="s" s="0">
-        <v>10</v>
-      </c>
       <c r="H10" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -278,24 +298,26 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13" s="0"/>
     </row>
